--- a/Code/Results/Cases/Case_1_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26902541992078</v>
+        <v>0.1425304360311941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1531189378349751</v>
+        <v>0.246097157014546</v>
       </c>
       <c r="E2">
-        <v>0.1595118831255142</v>
+        <v>0.1773659978598765</v>
       </c>
       <c r="F2">
-        <v>1.185335068983974</v>
+        <v>1.012249720703693</v>
       </c>
       <c r="G2">
-        <v>0.9021414530862018</v>
+        <v>0.5272962014676921</v>
       </c>
       <c r="H2">
-        <v>0.4893024974717122</v>
+        <v>0.5812333897015094</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2083622882087752</v>
+        <v>0.1772330055721199</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.288064236591595</v>
+        <v>1.995241137946778</v>
       </c>
       <c r="O2">
-        <v>2.889901092186193</v>
+        <v>2.183072434228677</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235677311870532</v>
+        <v>0.1329091933101978</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1410077997741013</v>
+        <v>0.2444676174134202</v>
       </c>
       <c r="E3">
-        <v>0.1430400100597495</v>
+        <v>0.1742912681868667</v>
       </c>
       <c r="F3">
-        <v>1.048988372686637</v>
+        <v>0.9831260700589439</v>
       </c>
       <c r="G3">
-        <v>0.7876649456344325</v>
+        <v>0.4999711970626919</v>
       </c>
       <c r="H3">
-        <v>0.4404263174094467</v>
+        <v>0.5723711798586777</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1842749841165485</v>
+        <v>0.1721769985554289</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.836929003758627</v>
+        <v>1.846526605564804</v>
       </c>
       <c r="O3">
-        <v>2.544498696186679</v>
+        <v>2.106238768013412</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152931864902854</v>
+        <v>0.1270661492628875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1337559595676581</v>
+        <v>0.2435737801817908</v>
       </c>
       <c r="E4">
-        <v>0.1331333896261455</v>
+        <v>0.1724976178116897</v>
       </c>
       <c r="F4">
-        <v>0.9667601569396567</v>
+        <v>0.9658221175057946</v>
       </c>
       <c r="G4">
-        <v>0.7184458239437816</v>
+        <v>0.4835087855673947</v>
       </c>
       <c r="H4">
-        <v>0.4110629174893745</v>
+        <v>0.5672287518405454</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1697607266965662</v>
+        <v>0.1691764068403643</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.56009691549059</v>
+        <v>1.755520437593759</v>
       </c>
       <c r="O4">
-        <v>2.336029034302612</v>
+        <v>2.060343181411326</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070077212374599</v>
+        <v>0.1247015078381395</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1308442182423804</v>
+        <v>0.2432364075533258</v>
       </c>
       <c r="E5">
-        <v>0.129144180644996</v>
+        <v>0.1717903946035122</v>
       </c>
       <c r="F5">
-        <v>0.9335911087825082</v>
+        <v>0.9589159623540269</v>
       </c>
       <c r="G5">
-        <v>0.690478510390875</v>
+        <v>0.4768793569706844</v>
       </c>
       <c r="H5">
-        <v>0.3992464882459927</v>
+        <v>0.5652084079914204</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1639088015362091</v>
+        <v>0.167979719279117</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.447332324296866</v>
+        <v>1.718516884911963</v>
       </c>
       <c r="O5">
-        <v>2.251894198675672</v>
+        <v>2.041962182227564</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056331561246481</v>
+        <v>0.1243098614095572</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1303632668558379</v>
+        <v>0.24318201137892</v>
       </c>
       <c r="E6">
-        <v>0.1284845434012034</v>
+        <v>0.171674392540087</v>
       </c>
       <c r="F6">
-        <v>0.9281029464507355</v>
+        <v>0.957777978631924</v>
       </c>
       <c r="G6">
-        <v>0.6858482427377481</v>
+        <v>0.4757833212346156</v>
       </c>
       <c r="H6">
-        <v>0.3972930305121167</v>
+        <v>0.5648774770931766</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1629407009777566</v>
+        <v>0.1677825844652077</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.428610827881812</v>
+        <v>1.712377599108464</v>
       </c>
       <c r="O6">
-        <v>2.237970587905437</v>
+        <v>2.038929463360034</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151813622178196</v>
+        <v>0.1270341919673399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1337165186723226</v>
+        <v>0.2435691213927882</v>
       </c>
       <c r="E7">
-        <v>0.1330794016111412</v>
+        <v>0.1724879839689208</v>
       </c>
       <c r="F7">
-        <v>0.9663114970005324</v>
+        <v>0.9657283902091791</v>
       </c>
       <c r="G7">
-        <v>0.7180677121060626</v>
+        <v>0.4834190585289946</v>
       </c>
       <c r="H7">
-        <v>0.4109029690091717</v>
+        <v>0.5672012000805466</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1696815598258112</v>
+        <v>0.1691601623408303</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.55857593667119</v>
+        <v>1.755021054648495</v>
       </c>
       <c r="O7">
-        <v>2.334891163417865</v>
+        <v>2.060093986032228</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2575068091881008</v>
+        <v>0.1391997998654944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1489029110424696</v>
+        <v>0.2455131683178706</v>
       </c>
       <c r="E8">
-        <v>0.153786723928981</v>
+        <v>0.1762862718187961</v>
       </c>
       <c r="F8">
-        <v>1.137991960674867</v>
+        <v>1.002087880873745</v>
       </c>
       <c r="G8">
-        <v>0.8624298488489188</v>
+        <v>0.517809018632434</v>
       </c>
       <c r="H8">
-        <v>0.4723075117506568</v>
+        <v>0.5781156669493015</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1999957687034311</v>
+        <v>0.1754681284190411</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.132480705843363</v>
+        <v>1.943904251618477</v>
       </c>
       <c r="O8">
-        <v>2.770001820814201</v>
+        <v>2.156314253543428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413255086069995</v>
+        <v>0.1635584291339143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.180289614800401</v>
+        <v>0.2501707657315677</v>
       </c>
       <c r="E9">
-        <v>0.1962456708432114</v>
+        <v>0.1844829058625663</v>
       </c>
       <c r="F9">
-        <v>1.488172839517347</v>
+        <v>1.077981530534032</v>
       </c>
       <c r="G9">
-        <v>1.155427723504175</v>
+        <v>0.5877591867547096</v>
       </c>
       <c r="H9">
-        <v>0.5984999628338699</v>
+        <v>0.6018910408742215</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2619445326613459</v>
+        <v>0.1886638921441488</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.25911396555432</v>
+        <v>2.316504389646809</v>
       </c>
       <c r="O9">
-        <v>3.656240636171844</v>
+        <v>2.355184202377018</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.403543021541779</v>
+        <v>0.1817500012197257</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.204543403068385</v>
+        <v>0.2541069149559831</v>
       </c>
       <c r="E10">
-        <v>0.2288832072828342</v>
+        <v>0.1909625588303214</v>
       </c>
       <c r="F10">
-        <v>1.75626149064837</v>
+        <v>1.136556074637113</v>
       </c>
       <c r="G10">
-        <v>1.378872476700764</v>
+        <v>0.6407026906574345</v>
       </c>
       <c r="H10">
-        <v>0.6957152925303944</v>
+        <v>0.6208072618303788</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3094632910164847</v>
+        <v>0.1988664766722508</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6.087573303855777</v>
+        <v>2.591327722520418</v>
       </c>
       <c r="O10">
-        <v>4.334061651820434</v>
+        <v>2.507549276033956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4320172635533197</v>
+        <v>0.1900877858899008</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2158883509781901</v>
+        <v>0.2560090365128502</v>
       </c>
       <c r="E11">
-        <v>0.2441206272103074</v>
+        <v>0.194010052836056</v>
       </c>
       <c r="F11">
-        <v>1.881197655326744</v>
+        <v>1.1638183204999</v>
       </c>
       <c r="G11">
-        <v>1.482823167424385</v>
+        <v>0.6651295264913699</v>
       </c>
       <c r="H11">
-        <v>0.7411583116155498</v>
+        <v>0.6297279495998964</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3316332389489673</v>
+        <v>0.2036191076019378</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.464636319050896</v>
+        <v>2.716530669508643</v>
       </c>
       <c r="O11">
-        <v>4.649830709952312</v>
+        <v>2.578233826267081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4428269586280464</v>
+        <v>0.1932538308938092</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2202339123353454</v>
+        <v>0.256745331136699</v>
       </c>
       <c r="E12">
-        <v>0.2499537267792888</v>
+        <v>0.195178431529726</v>
       </c>
       <c r="F12">
-        <v>1.928993666692875</v>
+        <v>1.174230611703237</v>
       </c>
       <c r="G12">
-        <v>1.522565760700331</v>
+        <v>0.6744288402402958</v>
       </c>
       <c r="H12">
-        <v>0.7585636166720064</v>
+        <v>0.6331513654079117</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3401186719824949</v>
+        <v>0.2054348799560159</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.607448666631683</v>
+        <v>2.763963193734583</v>
       </c>
       <c r="O12">
-        <v>4.770619062971775</v>
+        <v>2.605198180176444</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4404976502400615</v>
+        <v>0.1925715833279469</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2192957393567241</v>
+        <v>0.2565860458044114</v>
       </c>
       <c r="E13">
-        <v>0.2486945456079042</v>
+        <v>0.1949261616900486</v>
       </c>
       <c r="F13">
-        <v>1.918677394035086</v>
+        <v>1.17198419430666</v>
       </c>
       <c r="G13">
-        <v>1.513988837859671</v>
+        <v>0.6724238672803722</v>
       </c>
       <c r="H13">
-        <v>0.7548059433652838</v>
+        <v>0.6324120554357648</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3382869937968707</v>
+        <v>0.2050431063757969</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.576690288353973</v>
+        <v>2.753746911385861</v>
       </c>
       <c r="O13">
-        <v>4.744548695176945</v>
+        <v>2.599382130016579</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4329060254518424</v>
+        <v>0.190348085298524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.216244843365871</v>
+        <v>0.2560692914184273</v>
       </c>
       <c r="E14">
-        <v>0.244599215271343</v>
+        <v>0.1941058882925901</v>
       </c>
       <c r="F14">
-        <v>1.885119790698539</v>
+        <v>1.164673168681375</v>
       </c>
       <c r="G14">
-        <v>1.486084937668011</v>
+        <v>0.6658935957561596</v>
       </c>
       <c r="H14">
-        <v>0.7425861765709101</v>
+        <v>0.6300086875166357</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3323294697996744</v>
+        <v>0.2037681703561276</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.476385042944173</v>
+        <v>2.720432585385993</v>
       </c>
       <c r="O14">
-        <v>4.659742837884835</v>
+        <v>2.580448237419887</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4282595438098156</v>
+        <v>0.1889872547792919</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2143826691485202</v>
+        <v>0.2557548473068891</v>
       </c>
       <c r="E15">
-        <v>0.2420991285574345</v>
+        <v>0.1936053170411043</v>
       </c>
       <c r="F15">
-        <v>1.864629773240139</v>
+        <v>1.160206502899541</v>
       </c>
       <c r="G15">
-        <v>1.469043792848396</v>
+        <v>0.6619000535299335</v>
       </c>
       <c r="H15">
-        <v>0.7351275522492813</v>
+        <v>0.6285424593906441</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3286923853178649</v>
+        <v>0.202989326893956</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.414948655393232</v>
+        <v>2.700029152110062</v>
       </c>
       <c r="O15">
-        <v>4.607959385538038</v>
+        <v>2.568876427918497</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4016858187137728</v>
+        <v>0.1812063398625838</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2038086458945827</v>
+        <v>0.253984848216092</v>
       </c>
       <c r="E16">
-        <v>0.2278958367576394</v>
+        <v>0.19076540734887</v>
       </c>
       <c r="F16">
-        <v>1.748161340362458</v>
+        <v>1.13478682902678</v>
       </c>
       <c r="G16">
-        <v>1.372129376747949</v>
+        <v>0.6391132448457597</v>
       </c>
       <c r="H16">
-        <v>0.6927718286114555</v>
+        <v>0.6202306213541249</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3080264514460538</v>
+        <v>0.1985581258952323</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.062935127839467</v>
+        <v>2.583148644061055</v>
       </c>
       <c r="O16">
-        <v>4.313586969960681</v>
+        <v>2.502957520220775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3854292867136593</v>
+        <v>0.1764487851809662</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1974048620989635</v>
+        <v>0.252927554079335</v>
       </c>
       <c r="E17">
-        <v>0.219287283622954</v>
+        <v>0.1890487917633763</v>
       </c>
       <c r="F17">
-        <v>1.677514067573824</v>
+        <v>1.119350579213645</v>
       </c>
       <c r="G17">
-        <v>1.313298118684543</v>
+        <v>0.6252221158806037</v>
       </c>
       <c r="H17">
-        <v>0.6671150700398414</v>
+        <v>0.6152123840539616</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2954975450804511</v>
+        <v>0.1958682884033323</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.847034662043086</v>
+        <v>2.511489453100921</v>
       </c>
       <c r="O17">
-        <v>4.135000334773451</v>
+        <v>2.462870201680289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3760949153852096</v>
+        <v>0.1737182494253204</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1937506211046554</v>
+        <v>0.2523299281001528</v>
       </c>
       <c r="E18">
-        <v>0.2143721760577293</v>
+        <v>0.1880708399873683</v>
       </c>
       <c r="F18">
-        <v>1.637156555454013</v>
+        <v>1.110530072250853</v>
       </c>
       <c r="G18">
-        <v>1.279673773504584</v>
+        <v>0.6172645418874652</v>
       </c>
       <c r="H18">
-        <v>0.6524713348049715</v>
+        <v>0.6123557350702526</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2883426539193863</v>
+        <v>0.1943316508989312</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.722872568807418</v>
+        <v>2.470290675910178</v>
       </c>
       <c r="O18">
-        <v>4.032971412711845</v>
+        <v>2.439942247904867</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3729371237458139</v>
+        <v>0.1727947553761737</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1925182113542263</v>
+        <v>0.2521293870371721</v>
       </c>
       <c r="E19">
-        <v>0.2127140406216839</v>
+        <v>0.1877413368566323</v>
       </c>
       <c r="F19">
-        <v>1.62353811294831</v>
+        <v>1.107553563374182</v>
       </c>
       <c r="G19">
-        <v>1.26832450180865</v>
+        <v>0.614575776360283</v>
       </c>
       <c r="H19">
-        <v>0.6475320571994132</v>
+        <v>0.6113936264419806</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2859286525590363</v>
+        <v>0.19381317184191</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.680836575609476</v>
+        <v>2.456344689235891</v>
       </c>
       <c r="O19">
-        <v>3.998540346904463</v>
+        <v>2.432201422091509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.387158153167789</v>
+        <v>0.1769546279149097</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1980835172557676</v>
+        <v>0.2530390182400026</v>
       </c>
       <c r="E20">
-        <v>0.2201998735285997</v>
+        <v>0.1892305555620766</v>
       </c>
       <c r="F20">
-        <v>1.685005534589649</v>
+        <v>1.120987789708067</v>
       </c>
       <c r="G20">
-        <v>1.319538345830097</v>
+        <v>0.6266975129551611</v>
       </c>
       <c r="H20">
-        <v>0.6698343932673652</v>
+        <v>0.6157435095531412</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2968258748095423</v>
+        <v>0.1961535407199193</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.870015766701897</v>
+        <v>2.519115905986666</v>
       </c>
       <c r="O20">
-        <v>4.153938824038676</v>
+        <v>2.467124190622599</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.435135113195912</v>
+        <v>0.1910009463247206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2171395837636823</v>
+        <v>0.256220640706772</v>
       </c>
       <c r="E21">
-        <v>0.2458003449194877</v>
+        <v>0.1943464327933526</v>
       </c>
       <c r="F21">
-        <v>1.894962821182602</v>
+        <v>1.166818187367696</v>
       </c>
       <c r="G21">
-        <v>1.494270312239223</v>
+        <v>0.6678103529505393</v>
       </c>
       <c r="H21">
-        <v>0.7461698883874988</v>
+        <v>0.6307133845868691</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.33407680318399</v>
+        <v>0.2041422140131317</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.505846402053749</v>
+        <v>2.730217288371648</v>
       </c>
       <c r="O21">
-        <v>4.684618212197563</v>
+        <v>2.586004214704531</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4666501368059386</v>
+        <v>0.2002316580428385</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.229884652098832</v>
+        <v>0.2583932720500997</v>
       </c>
       <c r="E22">
-        <v>0.2629026990454335</v>
+        <v>0.1977736478161205</v>
       </c>
       <c r="F22">
-        <v>2.03504145007571</v>
+        <v>1.197287856512247</v>
       </c>
       <c r="G22">
-        <v>1.610700433453587</v>
+        <v>0.6949679831682829</v>
       </c>
       <c r="H22">
-        <v>0.7972194826316468</v>
+        <v>0.6407613510679369</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3589535494288469</v>
+        <v>0.2094568644435526</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.92155462715391</v>
+        <v>2.868303394937357</v>
       </c>
       <c r="O22">
-        <v>5.038598475936965</v>
+        <v>2.664851336729612</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4498145419795492</v>
+        <v>0.1953005061487687</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2230541201618763</v>
+        <v>0.2572251772788974</v>
       </c>
       <c r="E23">
-        <v>0.2537384736073136</v>
+        <v>0.1959368213278907</v>
       </c>
       <c r="F23">
-        <v>1.959997104234887</v>
+        <v>1.180978317030494</v>
       </c>
       <c r="G23">
-        <v>1.548338395312157</v>
+        <v>0.6804470454142972</v>
       </c>
       <c r="H23">
-        <v>0.7698595178198957</v>
+        <v>0.6353743924378534</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3456240151385828</v>
+        <v>0.206611761512363</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.699669140477852</v>
+        <v>2.794595190495954</v>
       </c>
       <c r="O23">
-        <v>4.848966516187204</v>
+        <v>2.622663646788794</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3863764963092677</v>
+        <v>0.1767259219246853</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1977766123239775</v>
+        <v>0.2529885934366405</v>
       </c>
       <c r="E24">
-        <v>0.2197871860418132</v>
+        <v>0.1891483522605455</v>
       </c>
       <c r="F24">
-        <v>1.681617841261087</v>
+        <v>1.120247438639538</v>
       </c>
       <c r="G24">
-        <v>1.316716524289717</v>
+        <v>0.6260303967945617</v>
       </c>
       <c r="H24">
-        <v>0.6686046565761785</v>
+        <v>0.6155032992347458</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2962251877687549</v>
+        <v>0.1960245476698788</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.859626127686454</v>
+        <v>2.51566798917645</v>
       </c>
       <c r="O24">
-        <v>4.14537474136614</v>
+        <v>2.465200592235362</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3185489263903492</v>
+        <v>0.1569161479396968</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1716055073935507</v>
+        <v>0.2488203805644389</v>
       </c>
       <c r="E25">
-        <v>0.1845301940913231</v>
+        <v>0.1821852480318853</v>
       </c>
       <c r="F25">
-        <v>1.391739614297222</v>
+        <v>1.056956987943394</v>
       </c>
       <c r="G25">
-        <v>1.074893072235881</v>
+        <v>0.5685648655344551</v>
       </c>
       <c r="H25">
-        <v>0.5636466684065056</v>
+        <v>0.5952049802152146</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2448706425912235</v>
+        <v>0.1850052413101935</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.95420499336683</v>
+        <v>2.215498394812073</v>
       </c>
       <c r="O25">
-        <v>3.412309648979885</v>
+        <v>2.300289579330752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1425304360311941</v>
+        <v>0.26902541992078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.246097157014546</v>
+        <v>0.153118937834904</v>
       </c>
       <c r="E2">
-        <v>0.1773659978598765</v>
+        <v>0.1595118831255142</v>
       </c>
       <c r="F2">
-        <v>1.012249720703693</v>
+        <v>1.185335068983989</v>
       </c>
       <c r="G2">
-        <v>0.5272962014676921</v>
+        <v>0.9021414530862302</v>
       </c>
       <c r="H2">
-        <v>0.5812333897015094</v>
+        <v>0.4893024974715985</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1772330055721199</v>
+        <v>0.2083622882087326</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.995241137946778</v>
+        <v>4.288064236591453</v>
       </c>
       <c r="O2">
-        <v>2.183072434228677</v>
+        <v>2.889901092186193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329091933101978</v>
+        <v>0.2356773118709157</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2444676174134202</v>
+        <v>0.141007799774215</v>
       </c>
       <c r="E3">
-        <v>0.1742912681868667</v>
+        <v>0.1430400100597424</v>
       </c>
       <c r="F3">
-        <v>0.9831260700589439</v>
+        <v>1.048988372686637</v>
       </c>
       <c r="G3">
-        <v>0.4999711970626919</v>
+        <v>0.7876649456344325</v>
       </c>
       <c r="H3">
-        <v>0.5723711798586777</v>
+        <v>0.4404263174094467</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1721769985554289</v>
+        <v>0.1842749841165414</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.846526605564804</v>
+        <v>3.836929003758598</v>
       </c>
       <c r="O3">
-        <v>2.106238768013412</v>
+        <v>2.544498696186622</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1270661492628875</v>
+        <v>0.2152931864902854</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2435737801817908</v>
+        <v>0.1337559595676581</v>
       </c>
       <c r="E4">
-        <v>0.1724976178116897</v>
+        <v>0.1331333896261597</v>
       </c>
       <c r="F4">
-        <v>0.9658221175057946</v>
+        <v>0.9667601569396709</v>
       </c>
       <c r="G4">
-        <v>0.4835087855673947</v>
+        <v>0.7184458239437532</v>
       </c>
       <c r="H4">
-        <v>0.5672287518405454</v>
+        <v>0.4110629174893887</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1691764068403643</v>
+        <v>0.1697607266966372</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.755520437593759</v>
+        <v>3.56009691549059</v>
       </c>
       <c r="O4">
-        <v>2.060343181411326</v>
+        <v>2.336029034302584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247015078381395</v>
+        <v>0.2070077212374883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2432364075533258</v>
+        <v>0.1308442182423093</v>
       </c>
       <c r="E5">
-        <v>0.1717903946035122</v>
+        <v>0.129144180644996</v>
       </c>
       <c r="F5">
-        <v>0.9589159623540269</v>
+        <v>0.9335911087825224</v>
       </c>
       <c r="G5">
-        <v>0.4768793569706844</v>
+        <v>0.6904785103908182</v>
       </c>
       <c r="H5">
-        <v>0.5652084079914204</v>
+        <v>0.3992464882459927</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.167979719279117</v>
+        <v>0.1639088015362944</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.718516884911963</v>
+        <v>3.447332324296866</v>
       </c>
       <c r="O5">
-        <v>2.041962182227564</v>
+        <v>2.251894198675672</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243098614095572</v>
+        <v>0.2056331561246623</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.24318201137892</v>
+        <v>0.1303632668558947</v>
       </c>
       <c r="E6">
-        <v>0.171674392540087</v>
+        <v>0.1284845434012034</v>
       </c>
       <c r="F6">
-        <v>0.957777978631924</v>
+        <v>0.9281029464507213</v>
       </c>
       <c r="G6">
-        <v>0.4757833212346156</v>
+        <v>0.6858482427377481</v>
       </c>
       <c r="H6">
-        <v>0.5648774770931766</v>
+        <v>0.3972930305122304</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1677825844652077</v>
+        <v>0.1629407009776855</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.712377599108464</v>
+        <v>3.428610827881698</v>
       </c>
       <c r="O6">
-        <v>2.038929463360034</v>
+        <v>2.23797058790538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270341919673399</v>
+        <v>0.2151813622174217</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2435691213927882</v>
+        <v>0.1337165186720952</v>
       </c>
       <c r="E7">
-        <v>0.1724879839689208</v>
+        <v>0.1330794016111376</v>
       </c>
       <c r="F7">
-        <v>0.9657283902091791</v>
+        <v>0.9663114970005324</v>
       </c>
       <c r="G7">
-        <v>0.4834190585289946</v>
+        <v>0.7180677121059773</v>
       </c>
       <c r="H7">
-        <v>0.5672012000805466</v>
+        <v>0.4109029690091717</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1691601623408303</v>
+        <v>0.1696815598257544</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.755021054648495</v>
+        <v>3.558575936671076</v>
       </c>
       <c r="O7">
-        <v>2.060093986032228</v>
+        <v>2.334891163417865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391997998654944</v>
+        <v>0.2575068091882997</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2455131683178706</v>
+        <v>0.1489029110425832</v>
       </c>
       <c r="E8">
-        <v>0.1762862718187961</v>
+        <v>0.153786723928981</v>
       </c>
       <c r="F8">
-        <v>1.002087880873745</v>
+        <v>1.137991960674867</v>
       </c>
       <c r="G8">
-        <v>0.517809018632434</v>
+        <v>0.8624298488489899</v>
       </c>
       <c r="H8">
-        <v>0.5781156669493015</v>
+        <v>0.472307511750742</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1754681284190411</v>
+        <v>0.1999957687034382</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.943904251618477</v>
+        <v>4.132480705843335</v>
       </c>
       <c r="O8">
-        <v>2.156314253543428</v>
+        <v>2.77000182081423</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1635584291339143</v>
+        <v>0.3413255086066727</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2501707657315677</v>
+        <v>0.1802896148003867</v>
       </c>
       <c r="E9">
-        <v>0.1844829058625663</v>
+        <v>0.1962456708431901</v>
       </c>
       <c r="F9">
-        <v>1.077981530534032</v>
+        <v>1.488172839517347</v>
       </c>
       <c r="G9">
-        <v>0.5877591867547096</v>
+        <v>1.155427723504204</v>
       </c>
       <c r="H9">
-        <v>0.6018910408742215</v>
+        <v>0.5984999628338699</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1886638921441488</v>
+        <v>0.2619445326614596</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.316504389646809</v>
+        <v>5.25911396555432</v>
       </c>
       <c r="O9">
-        <v>2.355184202377018</v>
+        <v>3.656240636171674</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1817500012197257</v>
+        <v>0.4035430215420064</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2541069149559831</v>
+        <v>0.204543403068385</v>
       </c>
       <c r="E10">
-        <v>0.1909625588303214</v>
+        <v>0.2288832072828058</v>
       </c>
       <c r="F10">
-        <v>1.136556074637113</v>
+        <v>1.756261490648356</v>
       </c>
       <c r="G10">
-        <v>0.6407026906574345</v>
+        <v>1.378872476700735</v>
       </c>
       <c r="H10">
-        <v>0.6208072618303788</v>
+        <v>0.6957152925303376</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1988664766722508</v>
+        <v>0.3094632910165274</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.591327722520418</v>
+        <v>6.087573303855663</v>
       </c>
       <c r="O10">
-        <v>2.507549276033956</v>
+        <v>4.334061651820377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1900877858899008</v>
+        <v>0.4320172635534192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2560090365128502</v>
+        <v>0.2158883509779912</v>
       </c>
       <c r="E11">
-        <v>0.194010052836056</v>
+        <v>0.2441206272103287</v>
       </c>
       <c r="F11">
-        <v>1.1638183204999</v>
+        <v>1.881197655326744</v>
       </c>
       <c r="G11">
-        <v>0.6651295264913699</v>
+        <v>1.482823167424272</v>
       </c>
       <c r="H11">
-        <v>0.6297279495998964</v>
+        <v>0.7411583116155498</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2036191076019378</v>
+        <v>0.3316332389489673</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.716530669508643</v>
+        <v>6.464636319050953</v>
       </c>
       <c r="O11">
-        <v>2.578233826267081</v>
+        <v>4.649830709952312</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1932538308938092</v>
+        <v>0.4428269586280749</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.256745331136699</v>
+        <v>0.2202339123354449</v>
       </c>
       <c r="E12">
-        <v>0.195178431529726</v>
+        <v>0.2499537267793457</v>
       </c>
       <c r="F12">
-        <v>1.174230611703237</v>
+        <v>1.928993666692861</v>
       </c>
       <c r="G12">
-        <v>0.6744288402402958</v>
+        <v>1.522565760700331</v>
       </c>
       <c r="H12">
-        <v>0.6331513654079117</v>
+        <v>0.7585636166720917</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2054348799560159</v>
+        <v>0.340118671982566</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.763963193734583</v>
+        <v>6.607448666631683</v>
       </c>
       <c r="O12">
-        <v>2.605198180176444</v>
+        <v>4.770619062971832</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1925715833279469</v>
+        <v>0.4404976502398483</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2565860458044114</v>
+        <v>0.2192957393570367</v>
       </c>
       <c r="E13">
-        <v>0.1949261616900486</v>
+        <v>0.2486945456079397</v>
       </c>
       <c r="F13">
-        <v>1.17198419430666</v>
+        <v>1.9186773940351</v>
       </c>
       <c r="G13">
-        <v>0.6724238672803722</v>
+        <v>1.513988837859699</v>
       </c>
       <c r="H13">
-        <v>0.6324120554357648</v>
+        <v>0.7548059433653123</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2050431063757969</v>
+        <v>0.3382869937970412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.753746911385861</v>
+        <v>6.576690288354087</v>
       </c>
       <c r="O13">
-        <v>2.599382130016579</v>
+        <v>4.744548695176945</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.190348085298524</v>
+        <v>0.4329060254517003</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2560692914184273</v>
+        <v>0.2162448433657573</v>
       </c>
       <c r="E14">
-        <v>0.1941058882925901</v>
+        <v>0.2445992152713146</v>
       </c>
       <c r="F14">
-        <v>1.164673168681375</v>
+        <v>1.885119790698525</v>
       </c>
       <c r="G14">
-        <v>0.6658935957561596</v>
+        <v>1.486084937668096</v>
       </c>
       <c r="H14">
-        <v>0.6300086875166357</v>
+        <v>0.7425861765709101</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2037681703561276</v>
+        <v>0.3323294697996317</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.720432585385993</v>
+        <v>6.476385042944173</v>
       </c>
       <c r="O14">
-        <v>2.580448237419887</v>
+        <v>4.659742837884835</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1889872547792919</v>
+        <v>0.4282595438100287</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2557548473068891</v>
+        <v>0.214382669148506</v>
       </c>
       <c r="E15">
-        <v>0.1936053170411043</v>
+        <v>0.2420991285573919</v>
       </c>
       <c r="F15">
-        <v>1.160206502899541</v>
+        <v>1.864629773240125</v>
       </c>
       <c r="G15">
-        <v>0.6619000535299335</v>
+        <v>1.469043792848311</v>
       </c>
       <c r="H15">
-        <v>0.6285424593906441</v>
+        <v>0.7351275522492529</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.202989326893956</v>
+        <v>0.3286923853178223</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.700029152110062</v>
+        <v>6.414948655393346</v>
       </c>
       <c r="O15">
-        <v>2.568876427918497</v>
+        <v>4.607959385538095</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1812063398625838</v>
+        <v>0.4016858187136307</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.253984848216092</v>
+        <v>0.2038086458943553</v>
       </c>
       <c r="E16">
-        <v>0.19076540734887</v>
+        <v>0.2278958367576251</v>
       </c>
       <c r="F16">
-        <v>1.13478682902678</v>
+        <v>1.748161340362429</v>
       </c>
       <c r="G16">
-        <v>0.6391132448457597</v>
+        <v>1.372129376748035</v>
       </c>
       <c r="H16">
-        <v>0.6202306213541249</v>
+        <v>0.6927718286113702</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1985581258952323</v>
+        <v>0.308026451446068</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.583148644061055</v>
+        <v>6.062935127839467</v>
       </c>
       <c r="O16">
-        <v>2.502957520220775</v>
+        <v>4.313586969960625</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1764487851809662</v>
+        <v>0.3854292867131903</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.252927554079335</v>
+        <v>0.1974048620988356</v>
       </c>
       <c r="E17">
-        <v>0.1890487917633763</v>
+        <v>0.2192872836229185</v>
       </c>
       <c r="F17">
-        <v>1.119350579213645</v>
+        <v>1.677514067573824</v>
       </c>
       <c r="G17">
-        <v>0.6252221158806037</v>
+        <v>1.3132981186846</v>
       </c>
       <c r="H17">
-        <v>0.6152123840539616</v>
+        <v>0.6671150700398414</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1958682884033323</v>
+        <v>0.2954975450804653</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.511489453100921</v>
+        <v>5.847034662043143</v>
       </c>
       <c r="O17">
-        <v>2.462870201680289</v>
+        <v>4.135000334773508</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1737182494253204</v>
+        <v>0.376094915385309</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2523299281001528</v>
+        <v>0.1937506211046696</v>
       </c>
       <c r="E18">
-        <v>0.1880708399873683</v>
+        <v>0.2143721760577364</v>
       </c>
       <c r="F18">
-        <v>1.110530072250853</v>
+        <v>1.637156555454013</v>
       </c>
       <c r="G18">
-        <v>0.6172645418874652</v>
+        <v>1.279673773504641</v>
       </c>
       <c r="H18">
-        <v>0.6123557350702526</v>
+        <v>0.6524713348049715</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1943316508989312</v>
+        <v>0.2883426539193295</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.470290675910178</v>
+        <v>5.722872568807361</v>
       </c>
       <c r="O18">
-        <v>2.439942247904867</v>
+        <v>4.032971412711902</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1727947553761737</v>
+        <v>0.3729371237458139</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2521293870371721</v>
+        <v>0.1925182113541695</v>
       </c>
       <c r="E19">
-        <v>0.1877413368566323</v>
+        <v>0.2127140406216625</v>
       </c>
       <c r="F19">
-        <v>1.107553563374182</v>
+        <v>1.623538112948339</v>
       </c>
       <c r="G19">
-        <v>0.614575776360283</v>
+        <v>1.268324501808678</v>
       </c>
       <c r="H19">
-        <v>0.6113936264419806</v>
+        <v>0.6475320571994132</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.19381317184191</v>
+        <v>0.2859286525590363</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.456344689235891</v>
+        <v>5.680836575609419</v>
       </c>
       <c r="O19">
-        <v>2.432201422091509</v>
+        <v>3.998540346904463</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1769546279149097</v>
+        <v>0.3871581531680448</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2530390182400026</v>
+        <v>0.198083517255796</v>
       </c>
       <c r="E20">
-        <v>0.1892305555620766</v>
+        <v>0.2201998735285784</v>
       </c>
       <c r="F20">
-        <v>1.120987789708067</v>
+        <v>1.685005534589635</v>
       </c>
       <c r="G20">
-        <v>0.6266975129551611</v>
+        <v>1.319538345830068</v>
       </c>
       <c r="H20">
-        <v>0.6157435095531412</v>
+        <v>0.6698343932672515</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1961535407199193</v>
+        <v>0.2968258748095849</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.519115905986666</v>
+        <v>5.870015766701954</v>
       </c>
       <c r="O20">
-        <v>2.467124190622599</v>
+        <v>4.153938824038732</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1910009463247206</v>
+        <v>0.4351351131953436</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.256220640706772</v>
+        <v>0.2171395837638812</v>
       </c>
       <c r="E21">
-        <v>0.1943464327933526</v>
+        <v>0.2458003449194877</v>
       </c>
       <c r="F21">
-        <v>1.166818187367696</v>
+        <v>1.894962821182588</v>
       </c>
       <c r="G21">
-        <v>0.6678103529505393</v>
+        <v>1.494270312239195</v>
       </c>
       <c r="H21">
-        <v>0.6307133845868691</v>
+        <v>0.7461698883874988</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2041422140131317</v>
+        <v>0.3340768031839332</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.730217288371648</v>
+        <v>6.505846402053919</v>
       </c>
       <c r="O21">
-        <v>2.586004214704531</v>
+        <v>4.684618212197506</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2002316580428385</v>
+        <v>0.4666501368060665</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2583932720500997</v>
+        <v>0.2298846520989457</v>
       </c>
       <c r="E22">
-        <v>0.1977736478161205</v>
+        <v>0.2629026990453909</v>
       </c>
       <c r="F22">
-        <v>1.197287856512247</v>
+        <v>2.035041450075695</v>
       </c>
       <c r="G22">
-        <v>0.6949679831682829</v>
+        <v>1.61070043345353</v>
       </c>
       <c r="H22">
-        <v>0.6407613510679369</v>
+        <v>0.7972194826316468</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2094568644435526</v>
+        <v>0.3589535494288612</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.868303394937357</v>
+        <v>6.921554627153967</v>
       </c>
       <c r="O22">
-        <v>2.664851336729612</v>
+        <v>5.038598475936965</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1953005061487687</v>
+        <v>0.4498145419792223</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2572251772788974</v>
+        <v>0.2230541201618763</v>
       </c>
       <c r="E23">
-        <v>0.1959368213278907</v>
+        <v>0.2537384736073349</v>
       </c>
       <c r="F23">
-        <v>1.180978317030494</v>
+        <v>1.959997104234873</v>
       </c>
       <c r="G23">
-        <v>0.6804470454142972</v>
+        <v>1.548338395312186</v>
       </c>
       <c r="H23">
-        <v>0.6353743924378534</v>
+        <v>0.7698595178198957</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.206611761512363</v>
+        <v>0.3456240151385686</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.794595190495954</v>
+        <v>6.699669140477795</v>
       </c>
       <c r="O23">
-        <v>2.622663646788794</v>
+        <v>4.848966516187261</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1767259219246853</v>
+        <v>0.3863764963093956</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2529885934366405</v>
+        <v>0.1977766123242048</v>
       </c>
       <c r="E24">
-        <v>0.1891483522605455</v>
+        <v>0.2197871860418559</v>
       </c>
       <c r="F24">
-        <v>1.120247438639538</v>
+        <v>1.681617841261087</v>
       </c>
       <c r="G24">
-        <v>0.6260303967945617</v>
+        <v>1.316716524289689</v>
       </c>
       <c r="H24">
-        <v>0.6155032992347458</v>
+        <v>0.6686046565761501</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1960245476698788</v>
+        <v>0.2962251877687549</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.51566798917645</v>
+        <v>5.859626127686511</v>
       </c>
       <c r="O24">
-        <v>2.465200592235362</v>
+        <v>4.145374741366197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1569161479396968</v>
+        <v>0.3185489263898518</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2488203805644389</v>
+        <v>0.1716055073937355</v>
       </c>
       <c r="E25">
-        <v>0.1821852480318853</v>
+        <v>0.1845301940913444</v>
       </c>
       <c r="F25">
-        <v>1.056956987943394</v>
+        <v>1.391739614297208</v>
       </c>
       <c r="G25">
-        <v>0.5685648655344551</v>
+        <v>1.074893072235852</v>
       </c>
       <c r="H25">
-        <v>0.5952049802152146</v>
+        <v>0.5636466684065056</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1850052413101935</v>
+        <v>0.2448706425912803</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.215498394812073</v>
+        <v>4.954204993366943</v>
       </c>
       <c r="O25">
-        <v>2.300289579330752</v>
+        <v>3.412309648979885</v>
       </c>
     </row>
   </sheetData>
